--- a/18_Natural_Processing/NIA_DICT/의약학_wecab_raw_ko_report.xlsx
+++ b/18_Natural_Processing/NIA_DICT/의약학_wecab_raw_ko_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyeoh/Desktop/GIT/TIL/18_Natural_Processing/NIA_DICT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EF9B5A-F3F1-7A4C-B6C1-239837968611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80D357-3F16-6746-8864-A79846F9F98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="257">
   <si>
     <t>Raw Sent</t>
   </si>
@@ -928,12 +928,6 @@
 .	SF,*,*,*,*,*,*,*
 EOS
 </t>
-  </si>
-  <si>
-    <t>동안</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i gel </t>
   </si>
   <si>
     <t>NNG-SL-SY-SL-</t>
@@ -2446,6 +2440,101 @@
       </rPr>
       <t>관지</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">요추내 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>압력</t>
+    </r>
+  </si>
+  <si>
+    <t>이러한 과정에서 요로감염(urinary tract infec-tion)에 의한 패혈증(sepsis)도 동반되어 입원과 퇴원을 반복하는 등 전신 상태가 매우 불안정하였다.</t>
+  </si>
+  <si>
+    <t>요로감염</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urinary tract infec tion </t>
+  </si>
+  <si>
+    <t>NNG-NNG-SSO-SL-SL-SL-SY-SL-SSC-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이러	XR,*,F,이러,*,*,*,*
+한	XSA+ETM,*,T,한,Inflect,XSA,ETM,하/XSA/*+ᆫ/ETM/*
+과정	NNG,*,T,과정,*,*,*,*
+에서	JKB,*,F,에서,*,*,*,*
+요로	NNG,*,F,요로,*,*,*,*
+감염	NNG,상태변화,T,감염,*,*,*,*
+(	SSO,*,*,*,*,*,*,*
+urinary	SL,*,*,*,*,*,*,*
+tract	SL,*,*,*,*,*,*,*
+infec	SL,*,*,*,*,*,*,*
+-	SY,*,*,*,*,*,*,*
+tion	SL,*,*,*,*,*,*,*
+)	SSC,*,*,*,*,*,*,*
+에	JKB,*,F,에,*,*,*,*
+의한	VV+ETM,*,T,의한,Inflect,VV,ETM,의하/VV/*+ᆫ/ETM/*
+패혈증	NNG,*,T,패혈증,Compound,*,*,패혈/NNG/*+증/NNG/*
+(	SSO,*,*,*,*,*,*,*
+sepsis	SL,*,*,*,*,*,*,*
+)	SSC,*,*,*,*,*,*,*
+도	JX,*,F,도,*,*,*,*
+동반	NNG,행위,T,동반,*,*,*,*
+되	XSV,*,F,되,*,*,*,*
+어	EC,*,F,어,*,*,*,*
+입원	NNG,행위,T,입원,*,*,*,*
+과	JC,*,F,과,*,*,*,*
+퇴원	NNG,행위,T,퇴원,*,*,*,*
+을	JKO,*,T,을,*,*,*,*
+반복	NNG,행위,T,반복,*,*,*,*
+하	XSV,*,F,하,*,*,*,*
+는	ETM,*,T,는,*,*,*,*
+등	NNB,*,T,등,*,*,*,*
+전신	NNG,*,T,전신,*,*,*,*
+상태	NNG,정적사태,F,상태,*,*,*,*
+가	JKS,*,F,가,*,*,*,*
+매우	MAG,성분부사|정도부사,F,매우,*,*,*,*
+불	XPN,*,T,불,*,*,*,*
+안정	NNG,*,T,안정,*,*,*,*
+하	XSV,*,F,하,*,*,*,*
+였	EP,*,T,였,*,*,*,*
+다	EF,*,F,다,*,*,*,*
+.	SF,*,*,*,*,*,*,*
+EOS
+</t>
+  </si>
+  <si>
+    <t>의한패혈증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sepsis </t>
+  </si>
+  <si>
+    <t>VV+ETM-NNG-SSO-SL-SSC-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laryngeal mask airway LMA </t>
+  </si>
+  <si>
+    <t>NNG-NNG-SSO-SL-SL-SL-SC-SL-SSC-</t>
+  </si>
+  <si>
+    <t>괄호 필수로 해서 괄호 없음으로 인해 삭제된 행</t>
   </si>
 </sst>
 </file>
@@ -2511,20 +2600,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2578,6 +2666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2592,7 +2686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2602,7 +2696,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -2612,6 +2705,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2951,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="331" zoomScaleNormal="331" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="331" zoomScaleNormal="331" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2962,7 +3059,8 @@
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,12 +3116,12 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3100,7 +3198,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>36</v>
@@ -3133,7 +3231,7 @@
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
@@ -3142,757 +3240,805 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
+      <c r="B12" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
         <v>232</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
+        <v>252</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C27" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>51</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="21"/>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" t="s">
-        <v>119</v>
+      <c r="A31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
+      <c r="B32" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>246</v>
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>132</v>
+        <v>109</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>242</v>
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
+        <v>123</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
+        <v>133</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>243</v>
+        <v>144</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>177</v>
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>244</v>
+        <v>161</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" t="s">
-        <v>193</v>
+        <v>172</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" t="s">
-        <v>197</v>
+        <v>179</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>208</v>
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>214</v>
-      </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="18" t="s">
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C61" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
+      <c r="D61" t="s">
         <v>222</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/18_Natural_Processing/NIA_DICT/의약학_wecab_raw_ko_report.xlsx
+++ b/18_Natural_Processing/NIA_DICT/의약학_wecab_raw_ko_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyeoh/Desktop/GIT/TIL/18_Natural_Processing/NIA_DICT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80D357-3F16-6746-8864-A79846F9F98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21B604-A31F-9F44-A0B0-853F6F770024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3050,15 +3050,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="331" zoomScaleNormal="331" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="331" zoomScaleNormal="331" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
   </cols>
